--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E271D4-D89D-4B0F-A808-C563D79595DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B394D2D-09C9-467A-8968-96767D9510A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="2985" windowWidth="17355" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3465" windowWidth="12330" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -106,22 +106,38 @@
     <t>Reward.xlsx</t>
   </si>
   <si>
-    <t>item.TableReward</t>
-  </si>
-  <si>
     <t>item.Reward</t>
+  </si>
+  <si>
+    <t>item.RewardTable</t>
+  </si>
+  <si>
+    <t>GameObjects.xlsx</t>
+  </si>
+  <si>
+    <t>item.GameObjectsTable</t>
+  </si>
+  <si>
+    <t>item.MyGameObejcts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,15 +188,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -465,12 +484,12 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
@@ -570,10 +589,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -583,15 +602,25 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B394D2D-09C9-467A-8968-96767D9510A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3465" windowWidth="12330" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -103,65 +110,303 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
+    <t>item.RewardTable</t>
+  </si>
+  <si>
+    <t>item.Reward</t>
+  </si>
+  <si>
     <t>Reward.xlsx</t>
   </si>
   <si>
-    <t>item.Reward</t>
-  </si>
-  <si>
-    <t>item.RewardTable</t>
+    <t>item.GameObjectsTable</t>
+  </si>
+  <si>
+    <t>item.MyGameObejcts</t>
   </si>
   <si>
     <t>GameObjects.xlsx</t>
   </si>
   <si>
-    <t>item.GameObjectsTable</t>
-  </si>
-  <si>
-    <t>item.MyGameObejcts</t>
+    <t>item.TinyObjectsTable</t>
+  </si>
+  <si>
+    <t>item.TinyObjects</t>
+  </si>
+  <si>
+    <t>TinyObjects.xlsx</t>
+  </si>
+  <si>
+    <t>item.WeaponTable</t>
+  </si>
+  <si>
+    <t>item.Weapon</t>
+  </si>
+  <si>
+    <t>Weapon.xlsx</t>
+  </si>
+  <si>
+    <t>item.FoodTable</t>
+  </si>
+  <si>
+    <t>item.Food</t>
+  </si>
+  <si>
+    <t>Food.xlsx</t>
+  </si>
+  <si>
+    <t>item.ThrowObjectsTable</t>
+  </si>
+  <si>
+    <t>item.ThrowObjects</t>
+  </si>
+  <si>
+    <t>ThrowObjects.xlsx</t>
+  </si>
+  <si>
+    <t>item.SceneObjectsTable</t>
+  </si>
+  <si>
+    <t>item.SceneObjects</t>
+  </si>
+  <si>
+    <t>SceneObjects.xlsx</t>
+  </si>
+  <si>
+    <t>item.ToolsTable</t>
+  </si>
+  <si>
+    <t>item.Tools</t>
+  </si>
+  <si>
+    <t>Tools.xlsx</t>
+  </si>
+  <si>
+    <t>item.JewelryTable</t>
+  </si>
+  <si>
+    <t>item.Jewelry</t>
+  </si>
+  <si>
+    <t>Jewelry.xlsx</t>
+  </si>
+  <si>
+    <t>cha.CharacterTable</t>
+  </si>
+  <si>
+    <t>cha.Character</t>
+  </si>
+  <si>
+    <t>Character.xlsx</t>
+  </si>
+  <si>
+    <t>buff.ConditionsTable</t>
+  </si>
+  <si>
+    <t>buff.Conditions</t>
+  </si>
+  <si>
+    <t>Conditions.xlsx</t>
+  </si>
+  <si>
+    <t>buff.PassiveSkillsTable</t>
+  </si>
+  <si>
+    <t>buff.PassiveSkills</t>
+  </si>
+  <si>
+    <t>PassiveSkills.xlsx</t>
+  </si>
+  <si>
+    <t>skill.ActiveSkillsTable</t>
+  </si>
+  <si>
+    <t>skill.ActiveSkills</t>
+  </si>
+  <si>
+    <t>ActiveSkills.xlsx</t>
+  </si>
+  <si>
+    <t>interact.InteractEffectTable</t>
+  </si>
+  <si>
+    <t>interact.InteractEffect</t>
+  </si>
+  <si>
+    <t>InteractEffect.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +419,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -183,41 +608,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -475,29 +1179,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="32.425" customWidth="1"/>
+    <col min="5" max="5" width="24.425" customWidth="1"/>
+    <col min="6" max="6" width="15.2833333333333" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -564,7 +1268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -587,9 +1291,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -598,30 +1302,198 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EAA4A-2FB5-469B-A532-7C2374367CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="2010" yWindow="615" windowWidth="26115" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -117,15 +110,6 @@
   </si>
   <si>
     <t>Reward.xlsx</t>
-  </si>
-  <si>
-    <t>item.GameObjectsTable</t>
-  </si>
-  <si>
-    <t>item.MyGameObejcts</t>
-  </si>
-  <si>
-    <t>GameObjects.xlsx</t>
   </si>
   <si>
     <t>item.TinyObjectsTable</t>
@@ -239,14 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,155 +236,21 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,188 +263,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -608,251 +272,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -860,68 +285,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1179,29 +561,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="32.425" customWidth="1"/>
-    <col min="5" max="5" width="24.425" customWidth="1"/>
-    <col min="6" max="6" width="15.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1291,7 +673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1305,25 +687,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:5">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1337,7 +715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1351,7 +729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1365,7 +743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -1379,7 +757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -1393,7 +771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -1407,7 +785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -1421,7 +799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1435,7 +813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>57</v>
       </c>
@@ -1449,7 +827,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>60</v>
       </c>
@@ -1463,7 +841,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -1477,23 +855,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EAA4A-2FB5-469B-A532-7C2374367CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3055A9E-EF33-471D-B7D5-82A8C0EEFF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="615" windowWidth="26115" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3180" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -224,29 +224,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,8 +293,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,20 +570,20 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E17" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -673,7 +673,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -687,7 +690,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -701,7 +707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -715,7 +721,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -729,7 +738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -743,7 +752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -757,7 +766,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>4</v>
+      </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -771,7 +783,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -785,7 +797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -799,7 +811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -813,7 +825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>57</v>
       </c>
@@ -827,7 +839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>60</v>
       </c>
@@ -841,7 +853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>63</v>
       </c>

--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3055A9E-EF33-471D-B7D5-82A8C0EEFF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3180" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21360" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -103,13 +110,85 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.RewardTable</t>
-  </si>
-  <si>
-    <t>item.Reward</t>
-  </si>
-  <si>
-    <t>Reward.xlsx</t>
+    <t>skill.ActiveSkillsTable</t>
+  </si>
+  <si>
+    <t>skill.ActiveSkills</t>
+  </si>
+  <si>
+    <t>cha_ActiveSkills.xlsx</t>
+  </si>
+  <si>
+    <t>cha.CharacterTable</t>
+  </si>
+  <si>
+    <t>cha.Character</t>
+  </si>
+  <si>
+    <t>cha_Character.xlsx</t>
+  </si>
+  <si>
+    <t>buff.ConditionsTable</t>
+  </si>
+  <si>
+    <t>buff.Conditions</t>
+  </si>
+  <si>
+    <t>cha_Conditions.xlsx</t>
+  </si>
+  <si>
+    <t>buff.PassiveSkillsTable</t>
+  </si>
+  <si>
+    <t>buff.PassiveSkills</t>
+  </si>
+  <si>
+    <t>cha_PassiveSkills.xlsx</t>
+  </si>
+  <si>
+    <t>interact.InteractEffectTable</t>
+  </si>
+  <si>
+    <t>interact.InteractEffect</t>
+  </si>
+  <si>
+    <t>func_InteractEffect.xlsx</t>
+  </si>
+  <si>
+    <t>item.FoodTable</t>
+  </si>
+  <si>
+    <t>item.Food</t>
+  </si>
+  <si>
+    <t>item_Food.xlsx</t>
+  </si>
+  <si>
+    <t>item.JewelryTable</t>
+  </si>
+  <si>
+    <t>item.Jewelry</t>
+  </si>
+  <si>
+    <t>item_Jewelry.xlsx</t>
+  </si>
+  <si>
+    <t>item.SceneObjectsTable</t>
+  </si>
+  <si>
+    <t>item.SceneObjects</t>
+  </si>
+  <si>
+    <t>item_SceneObjects.xlsx</t>
+  </si>
+  <si>
+    <t>item.ThrowObjectsTable</t>
+  </si>
+  <si>
+    <t>item.ThrowObjects</t>
+  </si>
+  <si>
+    <t>item_ThrowObjects.xlsx</t>
   </si>
   <si>
     <t>item.TinyObjectsTable</t>
@@ -118,7 +197,16 @@
     <t>item.TinyObjects</t>
   </si>
   <si>
-    <t>TinyObjects.xlsx</t>
+    <t>item_TinyObjects.xlsx</t>
+  </si>
+  <si>
+    <t>item.ToolsTable</t>
+  </si>
+  <si>
+    <t>item.Tools</t>
+  </si>
+  <si>
+    <t>item_Tools.xlsx</t>
   </si>
   <si>
     <t>item.WeaponTable</t>
@@ -127,130 +215,191 @@
     <t>item.Weapon</t>
   </si>
   <si>
-    <t>Weapon.xlsx</t>
-  </si>
-  <si>
-    <t>item.FoodTable</t>
-  </si>
-  <si>
-    <t>item.Food</t>
-  </si>
-  <si>
-    <t>Food.xlsx</t>
-  </si>
-  <si>
-    <t>item.ThrowObjectsTable</t>
-  </si>
-  <si>
-    <t>item.ThrowObjects</t>
-  </si>
-  <si>
-    <t>ThrowObjects.xlsx</t>
-  </si>
-  <si>
-    <t>item.SceneObjectsTable</t>
-  </si>
-  <si>
-    <t>item.SceneObjects</t>
-  </si>
-  <si>
-    <t>SceneObjects.xlsx</t>
-  </si>
-  <si>
-    <t>item.ToolsTable</t>
-  </si>
-  <si>
-    <t>item.Tools</t>
-  </si>
-  <si>
-    <t>Tools.xlsx</t>
-  </si>
-  <si>
-    <t>item.JewelryTable</t>
-  </si>
-  <si>
-    <t>item.Jewelry</t>
-  </si>
-  <si>
-    <t>Jewelry.xlsx</t>
-  </si>
-  <si>
-    <t>cha.CharacterTable</t>
-  </si>
-  <si>
-    <t>cha.Character</t>
-  </si>
-  <si>
-    <t>Character.xlsx</t>
-  </si>
-  <si>
-    <t>buff.ConditionsTable</t>
-  </si>
-  <si>
-    <t>buff.Conditions</t>
-  </si>
-  <si>
-    <t>Conditions.xlsx</t>
-  </si>
-  <si>
-    <t>buff.PassiveSkillsTable</t>
-  </si>
-  <si>
-    <t>buff.PassiveSkills</t>
-  </si>
-  <si>
-    <t>PassiveSkills.xlsx</t>
-  </si>
-  <si>
-    <t>skill.ActiveSkillsTable</t>
-  </si>
-  <si>
-    <t>skill.ActiveSkills</t>
-  </si>
-  <si>
-    <t>ActiveSkills.xlsx</t>
-  </si>
-  <si>
-    <t>interact.InteractEffectTable</t>
-  </si>
-  <si>
-    <t>interact.InteractEffect</t>
-  </si>
-  <si>
-    <t>InteractEffect.xlsx</t>
+    <t>item_Weapon.xlsx</t>
+  </si>
+  <si>
+    <t>scene.DoorsTable</t>
+  </si>
+  <si>
+    <t>scene.Doors</t>
+  </si>
+  <si>
+    <t>scene_Doors.xlsx</t>
+  </si>
+  <si>
+    <t>scene.RoomsTable</t>
+  </si>
+  <si>
+    <t>scene.Rooms</t>
+  </si>
+  <si>
+    <t>scene_Rooms.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +412,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,38 +601,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -561,30 +1175,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E16:E17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -618,8 +1233,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -650,8 +1265,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -673,9 +1288,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>100001</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -686,13 +1301,13 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>2</v>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>110001</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -707,7 +1322,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>120001</v>
+      </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -721,9 +1339,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>3</v>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>130001</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -738,7 +1356,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>900001</v>
+      </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -752,7 +1373,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>200001</v>
+      </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -766,9 +1390,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>4</v>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>210001</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -783,7 +1407,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>220001</v>
+      </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -797,7 +1424,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>230001</v>
+      </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -811,7 +1441,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>240001</v>
+      </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -825,7 +1458,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>250001</v>
+      </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
@@ -839,7 +1475,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>260001</v>
+      </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
@@ -853,7 +1492,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>300001</v>
+      </c>
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -867,9 +1509,26 @@
         <v>65</v>
       </c>
     </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>310002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="8280"/>
+    <workbookView windowWidth="16890" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>scene_Rooms.xlsx</t>
+  </si>
+  <si>
+    <t>mon.MonsterTable</t>
+  </si>
+  <si>
+    <t>mon.Monster</t>
+  </si>
+  <si>
+    <t>mon_Monster.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1526,6 +1535,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>400001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16890" windowHeight="10485"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>func_InteractEffect.xlsx</t>
+  </si>
+  <si>
+    <t>func.DropRuleTable</t>
+  </si>
+  <si>
+    <t>func.DropRule</t>
+  </si>
+  <si>
+    <t>func_DropRule.xlsx</t>
   </si>
   <si>
     <t>item.FoodTable</t>
@@ -1190,10 +1199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1384,7 +1393,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>200001</v>
+        <v>910001</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -1401,7 +1410,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>210001</v>
+        <v>200001</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -1418,7 +1427,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>220001</v>
+        <v>210001</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -1435,7 +1444,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>230001</v>
+        <v>220001</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -1452,7 +1461,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>240001</v>
+        <v>230001</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -1469,7 +1478,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>250001</v>
+        <v>240001</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -1486,7 +1495,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>260001</v>
+        <v>250001</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -1503,7 +1512,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>300001</v>
+        <v>260001</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -1520,7 +1529,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>310002</v>
+        <v>300001</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -1537,7 +1546,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>400001</v>
+        <v>310002</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -1550,6 +1559,23 @@
       </c>
       <c r="E18" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>400001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9C72A-4429-4C8A-9FF7-AF22660CE404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="3900" yWindow="1935" windowWidth="23730" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -252,172 +245,38 @@
   </si>
   <si>
     <t>mon_Monster.xlsx</t>
+  </si>
+  <si>
+    <t>text.LocalizationTable</t>
+  </si>
+  <si>
+    <t>text.Localization</t>
+  </si>
+  <si>
+    <t>text_Translate.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,188 +289,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -619,251 +298,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -871,71 +311,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1193,30 +590,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1283,7 +680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1306,7 +703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>100001</v>
       </c>
@@ -1323,7 +720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>110001</v>
       </c>
@@ -1340,7 +737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>120001</v>
       </c>
@@ -1357,7 +754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>130001</v>
       </c>
@@ -1374,7 +771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>900001</v>
       </c>
@@ -1391,7 +788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>910001</v>
       </c>
@@ -1408,7 +805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>200001</v>
       </c>
@@ -1425,7 +822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>210001</v>
       </c>
@@ -1442,7 +839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>220001</v>
       </c>
@@ -1459,7 +856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>230001</v>
       </c>
@@ -1476,7 +873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>240001</v>
       </c>
@@ -1493,7 +890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>250001</v>
       </c>
@@ -1510,7 +907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>260001</v>
       </c>
@@ -1578,9 +975,25 @@
         <v>74</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>700001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9C72A-4429-4C8A-9FF7-AF22660CE404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1935" windowWidth="23730" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17340" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -155,6 +162,15 @@
   </si>
   <si>
     <t>func_DropRule.xlsx</t>
+  </si>
+  <si>
+    <t>func.inspectionTable</t>
+  </si>
+  <si>
+    <t>func.inspection</t>
+  </si>
+  <si>
+    <t>func_inspection.xlsx</t>
   </si>
   <si>
     <t>item.FoodTable</t>
@@ -259,24 +275,167 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +448,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -298,12 +637,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -311,28 +889,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -590,30 +1211,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.425" customWidth="1"/>
+    <col min="4" max="4" width="32.425" customWidth="1"/>
+    <col min="5" max="5" width="24.425" customWidth="1"/>
+    <col min="6" max="6" width="15.2833333333333" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -680,7 +1301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -703,7 +1324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>100001</v>
       </c>
@@ -720,7 +1341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>110001</v>
       </c>
@@ -737,7 +1358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>120001</v>
       </c>
@@ -754,7 +1375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>130001</v>
       </c>
@@ -771,7 +1392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>900001</v>
       </c>
@@ -788,7 +1409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>910001</v>
       </c>
@@ -805,9 +1426,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>200001</v>
+        <v>920001</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -822,9 +1443,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>210001</v>
+        <v>200001</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -839,9 +1460,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>220001</v>
+        <v>210001</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -856,9 +1477,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>230001</v>
+        <v>220001</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -873,9 +1494,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>240001</v>
+        <v>230001</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -890,9 +1511,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>250001</v>
+        <v>240001</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -907,9 +1528,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>260001</v>
+        <v>250001</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -926,7 +1547,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>300001</v>
+        <v>260001</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -943,7 +1564,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>310002</v>
+        <v>300001</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -960,7 +1581,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>400001</v>
+        <v>310002</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -977,7 +1598,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>700001</v>
+        <v>400001</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -990,10 +1611,28 @@
       </c>
       <c r="E20" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>700001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/__tables__.xlsx
+++ b/AAA-Luban-Excel/Datas/__tables__.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538D7FAB-6FA4-4ABB-A903-5B295F93A003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17340" windowHeight="10380"/>
+    <workbookView xWindow="1110" yWindow="690" windowWidth="26520" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -164,12 +157,6 @@
     <t>func_DropRule.xlsx</t>
   </si>
   <si>
-    <t>func.inspectionTable</t>
-  </si>
-  <si>
-    <t>func.inspection</t>
-  </si>
-  <si>
     <t>func_inspection.xlsx</t>
   </si>
   <si>
@@ -270,172 +257,35 @@
   </si>
   <si>
     <t>text_Translate.xlsx</t>
+  </si>
+  <si>
+    <t>func.InspectionTable</t>
+  </si>
+  <si>
+    <t>func.Inspection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,188 +298,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -637,251 +307,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,71 +320,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1211,30 +599,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="27.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="25.425" customWidth="1"/>
-    <col min="4" max="4" width="32.425" customWidth="1"/>
-    <col min="5" max="5" width="24.425" customWidth="1"/>
-    <col min="6" max="6" width="15.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>100001</v>
       </c>
@@ -1341,7 +729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>110001</v>
       </c>
@@ -1358,7 +746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>120001</v>
       </c>
@@ -1375,7 +763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>130001</v>
       </c>
@@ -1392,7 +780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>900001</v>
       </c>
@@ -1409,7 +797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>910001</v>
       </c>
@@ -1426,123 +814,123 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>920001</v>
       </c>
       <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>200001</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>210001</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>220001</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>230001</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>240001</v>
       </c>
       <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>250001</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1550,16 +938,16 @@
         <v>260001</v>
       </c>
       <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1567,16 +955,16 @@
         <v>300001</v>
       </c>
       <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1584,16 +972,16 @@
         <v>310002</v>
       </c>
       <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1601,16 +989,16 @@
         <v>400001</v>
       </c>
       <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1618,21 +1006,20 @@
         <v>700001</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>